--- a/data/pca/factorExposure/factorExposure_2012-07-09.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-07-09.xlsx
@@ -14,12 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
   <si>
     <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -686,34 +698,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.01738935577691635</v>
+        <v>0.02258146327148273</v>
       </c>
       <c r="C2">
-        <v>0.02780617346036006</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>-0.02439781705083733</v>
+      </c>
+      <c r="D2">
+        <v>0.005461023480079832</v>
+      </c>
+      <c r="E2">
+        <v>-0.016335192959218</v>
+      </c>
+      <c r="F2">
+        <v>-0.005884085910052604</v>
+      </c>
+      <c r="G2">
+        <v>0.01595362387823161</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -721,21 +757,45 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.06874984024292111</v>
+        <v>0.07515497004522784</v>
       </c>
       <c r="C4">
-        <v>0.05942024204781056</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>-0.03998874932687663</v>
+      </c>
+      <c r="D4">
+        <v>0.06971014284515223</v>
+      </c>
+      <c r="E4">
+        <v>0.0002667473329226169</v>
+      </c>
+      <c r="F4">
+        <v>-0.02664551214776334</v>
+      </c>
+      <c r="G4">
+        <v>-0.02159996947371935</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -743,131 +803,275 @@
       <c r="C5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.09625153367091729</v>
+        <v>0.112007935352549</v>
       </c>
       <c r="C6">
-        <v>0.06665356895600293</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>-0.04595934319281872</v>
+      </c>
+      <c r="D6">
+        <v>0.01226689613754171</v>
+      </c>
+      <c r="E6">
+        <v>0.003070369378345189</v>
+      </c>
+      <c r="F6">
+        <v>-0.04485149109175138</v>
+      </c>
+      <c r="G6">
+        <v>0.01886577852827399</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.04463753123298288</v>
+        <v>0.05382136788954085</v>
       </c>
       <c r="C7">
-        <v>0.03491462410695347</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>-0.02618813189542099</v>
+      </c>
+      <c r="D7">
+        <v>0.03362499591713725</v>
+      </c>
+      <c r="E7">
+        <v>-0.0235329619384095</v>
+      </c>
+      <c r="F7">
+        <v>-0.0294518943093491</v>
+      </c>
+      <c r="G7">
+        <v>-0.03670605740563391</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.03237113790504621</v>
+        <v>0.03345515438878233</v>
       </c>
       <c r="C8">
-        <v>0.02712280674434634</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>-0.01739579784550587</v>
+      </c>
+      <c r="D8">
+        <v>0.03921124776935469</v>
+      </c>
+      <c r="E8">
+        <v>-0.008869550688203271</v>
+      </c>
+      <c r="F8">
+        <v>-0.0476791978574693</v>
+      </c>
+      <c r="G8">
+        <v>0.02212033343942849</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.06188465236983452</v>
+        <v>0.06939095373341186</v>
       </c>
       <c r="C9">
-        <v>0.04618294994602869</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>-0.02953074809852004</v>
+      </c>
+      <c r="D9">
+        <v>0.07026483258932378</v>
+      </c>
+      <c r="E9">
+        <v>-0.01908924239306415</v>
+      </c>
+      <c r="F9">
+        <v>-0.03480034203041089</v>
+      </c>
+      <c r="G9">
+        <v>-0.007451165760396929</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.02954721560189591</v>
+        <v>0.04119048163170375</v>
       </c>
       <c r="C10">
-        <v>0.0381970421129481</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>-0.03904793368343108</v>
+      </c>
+      <c r="D10">
+        <v>-0.1850077614071121</v>
+      </c>
+      <c r="E10">
+        <v>-0.04816215254707104</v>
+      </c>
+      <c r="F10">
+        <v>-0.03324157446813995</v>
+      </c>
+      <c r="G10">
+        <v>-0.02419268503025487</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.06973770655876323</v>
+        <v>0.07575401116876841</v>
       </c>
       <c r="C11">
-        <v>0.05365643959638885</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>-0.03187657728570812</v>
+      </c>
+      <c r="D11">
+        <v>0.06794833514009353</v>
+      </c>
+      <c r="E11">
+        <v>0.007911035605229547</v>
+      </c>
+      <c r="F11">
+        <v>-0.03488063099059099</v>
+      </c>
+      <c r="G11">
+        <v>-0.03866167533507201</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.05259439570614013</v>
+        <v>0.06033585797154076</v>
       </c>
       <c r="C12">
-        <v>0.05190180458826502</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>-0.03578743198370721</v>
+      </c>
+      <c r="D12">
+        <v>0.05113689189609704</v>
+      </c>
+      <c r="E12">
+        <v>-0.009442252631805112</v>
+      </c>
+      <c r="F12">
+        <v>-0.02455539296329045</v>
+      </c>
+      <c r="G12">
+        <v>-0.03281933457778798</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.05829633958640834</v>
+        <v>0.06384184609098274</v>
       </c>
       <c r="C13">
-        <v>0.05146517047252691</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>-0.03066018270765719</v>
+      </c>
+      <c r="D13">
+        <v>0.05343722988921106</v>
+      </c>
+      <c r="E13">
+        <v>-0.008407623120305257</v>
+      </c>
+      <c r="F13">
+        <v>-0.01584256197962546</v>
+      </c>
+      <c r="G13">
+        <v>-0.01811403941157266</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.03287834535520168</v>
+        <v>0.03807564348730844</v>
       </c>
       <c r="C14">
-        <v>0.0290109599467654</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>-0.02241275257198609</v>
+      </c>
+      <c r="D14">
+        <v>0.009667660322840187</v>
+      </c>
+      <c r="E14">
+        <v>-0.01645756833936296</v>
+      </c>
+      <c r="F14">
+        <v>-0.01392426568399052</v>
+      </c>
+      <c r="G14">
+        <v>0.006936289560359099</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0.03956093603953822</v>
+        <v>0.04030359084112123</v>
       </c>
       <c r="C15">
-        <v>0.01441712223330644</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>-0.005107086388984855</v>
+      </c>
+      <c r="D15">
+        <v>0.01878043358171009</v>
+      </c>
+      <c r="E15">
+        <v>-0.04248421946567175</v>
+      </c>
+      <c r="F15">
+        <v>0.002510208742403043</v>
+      </c>
+      <c r="G15">
+        <v>0.01889859985561017</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.05799962594193931</v>
+        <v>0.06163767803160633</v>
       </c>
       <c r="C16">
-        <v>0.0445422288080769</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>-0.02771489473890648</v>
+      </c>
+      <c r="D16">
+        <v>0.05990820826804288</v>
+      </c>
+      <c r="E16">
+        <v>-0.001224986657285768</v>
+      </c>
+      <c r="F16">
+        <v>-0.02893776422271567</v>
+      </c>
+      <c r="G16">
+        <v>-0.02343661649853235</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -875,10 +1079,22 @@
       <c r="C17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -886,10 +1102,22 @@
       <c r="C18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -897,87 +1125,183 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.06218006987030374</v>
+        <v>0.06151271249079855</v>
       </c>
       <c r="C20">
-        <v>0.03755087840554507</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>-0.01865831650491947</v>
+      </c>
+      <c r="D20">
+        <v>0.04949075396913758</v>
+      </c>
+      <c r="E20">
+        <v>-0.01902523495230946</v>
+      </c>
+      <c r="F20">
+        <v>-0.02479540764557758</v>
+      </c>
+      <c r="G20">
+        <v>-0.02578300898985482</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.02743112672622852</v>
+        <v>0.02356689425102164</v>
       </c>
       <c r="C21">
-        <v>0.000950978434281824</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>0.009819825381318967</v>
+      </c>
+      <c r="D21">
+        <v>0.03009934186858305</v>
+      </c>
+      <c r="E21">
+        <v>-0.09511487499533358</v>
+      </c>
+      <c r="F21">
+        <v>0.008936676331566643</v>
+      </c>
+      <c r="G21">
+        <v>0.0240501037515925</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0.06887369242274143</v>
+        <v>0.06924853081736917</v>
       </c>
       <c r="C22">
-        <v>0.07729408234361623</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>-0.04886444636167316</v>
+      </c>
+      <c r="D22">
+        <v>0.1074312412153851</v>
+      </c>
+      <c r="E22">
+        <v>-0.6024886108202018</v>
+      </c>
+      <c r="F22">
+        <v>0.1635220441003324</v>
+      </c>
+      <c r="G22">
+        <v>0.04336872506805878</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0.06962880453245016</v>
+        <v>0.0699623363816807</v>
       </c>
       <c r="C23">
-        <v>0.07682719279002338</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>-0.04831055729941379</v>
+      </c>
+      <c r="D23">
+        <v>0.1085666622329887</v>
+      </c>
+      <c r="E23">
+        <v>-0.6016870615416963</v>
+      </c>
+      <c r="F23">
+        <v>0.1632449999268195</v>
+      </c>
+      <c r="G23">
+        <v>0.04492019682534976</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.0644193584896809</v>
+        <v>0.07243920046366911</v>
       </c>
       <c r="C24">
-        <v>0.05211665921369441</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>-0.03310217357886663</v>
+      </c>
+      <c r="D24">
+        <v>0.06665161087861358</v>
+      </c>
+      <c r="E24">
+        <v>-0.00759697033359497</v>
+      </c>
+      <c r="F24">
+        <v>-0.0431989793228201</v>
+      </c>
+      <c r="G24">
+        <v>-0.01656937058225979</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.06512276732859022</v>
+        <v>0.0708396202507877</v>
       </c>
       <c r="C25">
-        <v>0.0582106561405021</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>-0.0386143214844092</v>
+      </c>
+      <c r="D25">
+        <v>0.064224866028776</v>
+      </c>
+      <c r="E25">
+        <v>-0.007358567878986149</v>
+      </c>
+      <c r="F25">
+        <v>-0.03692119142397643</v>
+      </c>
+      <c r="G25">
+        <v>-0.01497280837048238</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.03913358090207571</v>
+        <v>0.04034589712958261</v>
       </c>
       <c r="C26">
-        <v>0.01400249779042459</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>-0.005596347541928703</v>
+      </c>
+      <c r="D26">
+        <v>0.01971783977525281</v>
+      </c>
+      <c r="E26">
+        <v>-0.03986533550116945</v>
+      </c>
+      <c r="F26">
+        <v>-0.01836914937639742</v>
+      </c>
+      <c r="G26">
+        <v>-0.01885332877771552</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -985,109 +1309,229 @@
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.05316626881546122</v>
+        <v>0.07503799861338943</v>
       </c>
       <c r="C28">
-        <v>0.07562943673774125</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>-0.07621339690747066</v>
+      </c>
+      <c r="D28">
+        <v>-0.3241861650989851</v>
+      </c>
+      <c r="E28">
+        <v>-0.04689752795075976</v>
+      </c>
+      <c r="F28">
+        <v>-0.04859311191690642</v>
+      </c>
+      <c r="G28">
+        <v>0.02758954782449237</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.0360554055234992</v>
+        <v>0.04200481398169424</v>
       </c>
       <c r="C29">
-        <v>0.03294017010218336</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>-0.02563952914670896</v>
+      </c>
+      <c r="D29">
+        <v>0.009533257008916284</v>
+      </c>
+      <c r="E29">
+        <v>-0.04166083467212578</v>
+      </c>
+      <c r="F29">
+        <v>-0.006597397668838036</v>
+      </c>
+      <c r="G29">
+        <v>-0.006840093495561732</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.1133245558783108</v>
+        <v>0.1267974327704215</v>
       </c>
       <c r="C30">
-        <v>0.09911492662695266</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>-0.06710218187811712</v>
+      </c>
+      <c r="D30">
+        <v>0.1047599442697182</v>
+      </c>
+      <c r="E30">
+        <v>-0.04038133067363179</v>
+      </c>
+      <c r="F30">
+        <v>-0.01151654249696955</v>
+      </c>
+      <c r="G30">
+        <v>0.003386529013832623</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.03762551832678358</v>
+        <v>0.04282546991272766</v>
       </c>
       <c r="C31">
-        <v>0.02516479104821003</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>-0.01594714713000793</v>
+      </c>
+      <c r="D31">
+        <v>0.02951793958559607</v>
+      </c>
+      <c r="E31">
+        <v>-0.02104860561183046</v>
+      </c>
+      <c r="F31">
+        <v>-0.01379524430069972</v>
+      </c>
+      <c r="G31">
+        <v>-0.01996669528540873</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.03184599224325022</v>
+        <v>0.03353540785393493</v>
       </c>
       <c r="C32">
-        <v>0.02919563057337602</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>-0.01836782329087532</v>
+      </c>
+      <c r="D32">
+        <v>0.01588079829331777</v>
+      </c>
+      <c r="E32">
+        <v>-0.0607541390933528</v>
+      </c>
+      <c r="F32">
+        <v>0.01608875712305026</v>
+      </c>
+      <c r="G32">
+        <v>0.00361399066047766</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.07627886446921246</v>
+        <v>0.08753903878437494</v>
       </c>
       <c r="C33">
-        <v>0.05177632949763195</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>-0.03354247982427629</v>
+      </c>
+      <c r="D33">
+        <v>0.06367325828130206</v>
+      </c>
+      <c r="E33">
+        <v>-0.01450563491304459</v>
+      </c>
+      <c r="F33">
+        <v>-0.003205141892979372</v>
+      </c>
+      <c r="G33">
+        <v>-0.03059378052033023</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.05152117836537204</v>
+        <v>0.05652830772547127</v>
       </c>
       <c r="C34">
-        <v>0.033295674093839</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>-0.01913196022849157</v>
+      </c>
+      <c r="D34">
+        <v>0.05742714544165495</v>
+      </c>
+      <c r="E34">
+        <v>-0.003657431552775877</v>
+      </c>
+      <c r="F34">
+        <v>-0.02650716853674551</v>
+      </c>
+      <c r="G34">
+        <v>-0.01496533811466354</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B35">
-        <v>0.03703849037384668</v>
+        <v>0.03949287540331276</v>
       </c>
       <c r="C35">
-        <v>0.01398065717980346</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>-0.006101507708174658</v>
+      </c>
+      <c r="D35">
+        <v>0.009510660728340689</v>
+      </c>
+      <c r="E35">
+        <v>-0.02881004347195756</v>
+      </c>
+      <c r="F35">
+        <v>0.005526814523714023</v>
+      </c>
+      <c r="G35">
+        <v>-0.01153825432948153</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.019147940915631</v>
+        <v>0.02271045153217086</v>
       </c>
       <c r="C36">
-        <v>0.01575224493052773</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>-0.0103861981718506</v>
+      </c>
+      <c r="D36">
+        <v>0.01868657015834967</v>
+      </c>
+      <c r="E36">
+        <v>-0.03552386913760776</v>
+      </c>
+      <c r="F36">
+        <v>-0.01722426795116668</v>
+      </c>
+      <c r="G36">
+        <v>-0.01828094053926122</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1095,54 +1539,114 @@
       <c r="C37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.03691236201768191</v>
+        <v>0.0396875059381744</v>
       </c>
       <c r="C38">
-        <v>0.0129263032357946</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>-0.003819111931150644</v>
+      </c>
+      <c r="D38">
+        <v>0.01181459936761401</v>
+      </c>
+      <c r="E38">
+        <v>-0.05999852156852764</v>
+      </c>
+      <c r="F38">
+        <v>0.02430184223046618</v>
+      </c>
+      <c r="G38">
+        <v>0.02622644266797137</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.08684864302444228</v>
+        <v>0.09858091528266362</v>
       </c>
       <c r="C39">
-        <v>0.08056748978158662</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>-0.05411685415152893</v>
+      </c>
+      <c r="D39">
+        <v>0.08613675705361033</v>
+      </c>
+      <c r="E39">
+        <v>0.01931530378954916</v>
+      </c>
+      <c r="F39">
+        <v>-0.02193264606082412</v>
+      </c>
+      <c r="G39">
+        <v>0.006442719497870213</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.06797394133592426</v>
+        <v>0.07487375999725419</v>
       </c>
       <c r="C40">
-        <v>0.05861263340984006</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>-0.04045389193098946</v>
+      </c>
+      <c r="D40">
+        <v>0.01013168510944597</v>
+      </c>
+      <c r="E40">
+        <v>-0.02719680810433146</v>
+      </c>
+      <c r="F40">
+        <v>0.04678750625219075</v>
+      </c>
+      <c r="G40">
+        <v>0.03629656600659147</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.03929728144891314</v>
+        <v>0.04258982059054773</v>
       </c>
       <c r="C41">
-        <v>0.0171619931923792</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>-0.008554648554116752</v>
+      </c>
+      <c r="D41">
+        <v>0.04210275804853041</v>
+      </c>
+      <c r="E41">
+        <v>-0.008387336139963359</v>
+      </c>
+      <c r="F41">
+        <v>0.009732266183501469</v>
+      </c>
+      <c r="G41">
+        <v>0.002466012742880315</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1150,32 +1654,68 @@
       <c r="C42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.04100100462733596</v>
+        <v>0.04911387955968879</v>
       </c>
       <c r="C43">
-        <v>0.03736529725208329</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>-0.02405942105854444</v>
+      </c>
+      <c r="D43">
+        <v>0.02822792396206558</v>
+      </c>
+      <c r="E43">
+        <v>-0.01880289606984887</v>
+      </c>
+      <c r="F43">
+        <v>-0.009906279571056751</v>
+      </c>
+      <c r="G43">
+        <v>-0.0153993759438222</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.0865266175180355</v>
+        <v>0.08936825510121851</v>
       </c>
       <c r="C44">
-        <v>0.09256313054625957</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>-0.06167610248292946</v>
+      </c>
+      <c r="D44">
+        <v>0.06226476279785573</v>
+      </c>
+      <c r="E44">
+        <v>-0.09662811750273692</v>
+      </c>
+      <c r="F44">
+        <v>-0.05781890723991202</v>
+      </c>
+      <c r="G44">
+        <v>0.004374061627503891</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1183,76 +1723,160 @@
       <c r="C45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.0274837932513341</v>
+        <v>0.02819003689994086</v>
       </c>
       <c r="C46">
-        <v>0.01965807263318911</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>-0.01239788460358428</v>
+      </c>
+      <c r="D46">
+        <v>0.03298193809886207</v>
+      </c>
+      <c r="E46">
+        <v>-0.02000564946954516</v>
+      </c>
+      <c r="F46">
+        <v>-0.01744006856759611</v>
+      </c>
+      <c r="G46">
+        <v>0.005660397916080862</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.02958060178233057</v>
+        <v>0.03284724738060944</v>
       </c>
       <c r="C47">
-        <v>0.02202095692232925</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>-0.01386048033528968</v>
+      </c>
+      <c r="D47">
+        <v>0.01749610995496981</v>
+      </c>
+      <c r="E47">
+        <v>-0.05175511453169156</v>
+      </c>
+      <c r="F47">
+        <v>-0.01125969493289109</v>
+      </c>
+      <c r="G47">
+        <v>-0.02588809516597607</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.02805417637915928</v>
+        <v>0.03223162351828991</v>
       </c>
       <c r="C48">
-        <v>0.01936218283884172</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>-0.0122183705549146</v>
+      </c>
+      <c r="D48">
+        <v>0.02866384109772829</v>
+      </c>
+      <c r="E48">
+        <v>-0.04306824888614269</v>
+      </c>
+      <c r="F48">
+        <v>-0.01685555305790792</v>
+      </c>
+      <c r="G48">
+        <v>-0.0106904849805399</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B49">
-        <v>0.1549738265760007</v>
+        <v>0.1762805816040619</v>
       </c>
       <c r="C49">
-        <v>0.09576627461770902</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>-0.05966863068642239</v>
+      </c>
+      <c r="D49">
+        <v>0.009929515096894896</v>
+      </c>
+      <c r="E49">
+        <v>0.1179525065932492</v>
+      </c>
+      <c r="F49">
+        <v>-0.01773666394425318</v>
+      </c>
+      <c r="G49">
+        <v>-0.07506751275956798</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.03217469236283332</v>
+        <v>0.0397749211092728</v>
       </c>
       <c r="C50">
-        <v>0.02659066288753978</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>-0.0217964830495107</v>
+      </c>
+      <c r="D50">
+        <v>0.03891403789851124</v>
+      </c>
+      <c r="E50">
+        <v>-0.0459311923899667</v>
+      </c>
+      <c r="F50">
+        <v>-0.02505693499849827</v>
+      </c>
+      <c r="G50">
+        <v>-0.02096539013489412</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.02454606045259141</v>
+        <v>0.02606083313925978</v>
       </c>
       <c r="C51">
-        <v>0.01898916174241983</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>-0.01159198554267532</v>
+      </c>
+      <c r="D51">
+        <v>0.02601049044521825</v>
+      </c>
+      <c r="E51">
+        <v>-0.01458212128754294</v>
+      </c>
+      <c r="F51">
+        <v>-0.006891665868899438</v>
+      </c>
+      <c r="G51">
+        <v>0.008853288091754948</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1260,54 +1884,114 @@
       <c r="C52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.1418420430204232</v>
+        <v>0.1597980601197448</v>
       </c>
       <c r="C53">
-        <v>0.1037206966794318</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>-0.07081115498668966</v>
+      </c>
+      <c r="D53">
+        <v>0.02290408768388208</v>
+      </c>
+      <c r="E53">
+        <v>0.0342204903567244</v>
+      </c>
+      <c r="F53">
+        <v>-0.02676957668180103</v>
+      </c>
+      <c r="G53">
+        <v>-0.02737011833050421</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.05238405372562666</v>
+        <v>0.05613006930914346</v>
       </c>
       <c r="C54">
-        <v>0.02622651941720098</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>-0.01299627928325454</v>
+      </c>
+      <c r="D54">
+        <v>0.03655156747231234</v>
+      </c>
+      <c r="E54">
+        <v>-0.04073843356700835</v>
+      </c>
+      <c r="F54">
+        <v>-0.01093533589784369</v>
+      </c>
+      <c r="G54">
+        <v>-0.01045035164129649</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.09334514797999623</v>
+        <v>0.1004321521627717</v>
       </c>
       <c r="C55">
-        <v>0.06439970136806411</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>-0.0435476634973571</v>
+      </c>
+      <c r="D55">
+        <v>0.03290288280971387</v>
+      </c>
+      <c r="E55">
+        <v>-0.008918501187539779</v>
+      </c>
+      <c r="F55">
+        <v>-0.02794576529550973</v>
+      </c>
+      <c r="G55">
+        <v>-0.0104827567541169</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.136983581703396</v>
+        <v>0.1584552418319228</v>
       </c>
       <c r="C56">
-        <v>0.1116109794674498</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>-0.07811695377133084</v>
+      </c>
+      <c r="D56">
+        <v>0.01655225937783887</v>
+      </c>
+      <c r="E56">
+        <v>0.03629336824119869</v>
+      </c>
+      <c r="F56">
+        <v>-0.06081792990455122</v>
+      </c>
+      <c r="G56">
+        <v>-0.04141839738525849</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1315,428 +1999,896 @@
       <c r="C57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.1162871163284371</v>
+        <v>0.1080632015669404</v>
       </c>
       <c r="C58">
-        <v>0.03404818618889895</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>-0.001127093288165989</v>
+      </c>
+      <c r="D58">
+        <v>0.05282568861338934</v>
+      </c>
+      <c r="E58">
+        <v>-0.1765889754074042</v>
+      </c>
+      <c r="F58">
+        <v>-0.04307826110330651</v>
+      </c>
+      <c r="G58">
+        <v>-0.04204739345234103</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.1060174370109288</v>
+        <v>0.1469618599596677</v>
       </c>
       <c r="C59">
-        <v>0.08799249621125964</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>-0.0856168173709571</v>
+      </c>
+      <c r="D59">
+        <v>-0.3501329859121358</v>
+      </c>
+      <c r="E59">
+        <v>-0.04373105304188025</v>
+      </c>
+      <c r="F59">
+        <v>0.02570521730904174</v>
+      </c>
+      <c r="G59">
+        <v>-0.008841336782675336</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.1824726473142269</v>
+        <v>0.2125382709415866</v>
       </c>
       <c r="C60">
-        <v>0.1187729447202474</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>-0.08083621514743132</v>
+      </c>
+      <c r="D60">
+        <v>0.01588581918726225</v>
+      </c>
+      <c r="E60">
+        <v>0.07295022830802163</v>
+      </c>
+      <c r="F60">
+        <v>-0.04298042181368924</v>
+      </c>
+      <c r="G60">
+        <v>0.03401032314195751</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.07640813468335281</v>
+        <v>0.08352473884265905</v>
       </c>
       <c r="C61">
-        <v>0.05891029240336634</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>-0.03861496503705671</v>
+      </c>
+      <c r="D61">
+        <v>0.06138241513475912</v>
+      </c>
+      <c r="E61">
+        <v>0.01336257296393685</v>
+      </c>
+      <c r="F61">
+        <v>-0.006085836860856263</v>
+      </c>
+      <c r="G61">
+        <v>-0.03424915300868037</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B62">
-        <v>0.1166665930289982</v>
+        <v>0.1375967015782072</v>
       </c>
       <c r="C62">
-        <v>0.0842796859600754</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>-0.0600454570920806</v>
+      </c>
+      <c r="D62">
+        <v>0.02713640678338598</v>
+      </c>
+      <c r="E62">
+        <v>0.05323105639697216</v>
+      </c>
+      <c r="F62">
+        <v>-0.0273613136646711</v>
+      </c>
+      <c r="G62">
+        <v>0.009892499634325981</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.04919337215691058</v>
+        <v>0.05173242765821395</v>
       </c>
       <c r="C63">
-        <v>0.03003901747188811</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>-0.01830037524822859</v>
+      </c>
+      <c r="D63">
+        <v>0.03002426837171623</v>
+      </c>
+      <c r="E63">
+        <v>-0.04787111792749278</v>
+      </c>
+      <c r="F63">
+        <v>-0.01570392682718465</v>
+      </c>
+      <c r="G63">
+        <v>0.02307715913708817</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.1058566964318563</v>
+        <v>0.1105179945464144</v>
       </c>
       <c r="C64">
-        <v>0.04795498953576135</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>-0.02516801227808895</v>
+      </c>
+      <c r="D64">
+        <v>0.04743933848705258</v>
+      </c>
+      <c r="E64">
+        <v>-0.03235929839995974</v>
+      </c>
+      <c r="F64">
+        <v>-0.05123741414642804</v>
+      </c>
+      <c r="G64">
+        <v>0.01427670208540524</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.1073445230196649</v>
+        <v>0.1208996137993051</v>
       </c>
       <c r="C65">
-        <v>0.06665116590914391</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>-0.04490503785718523</v>
+      </c>
+      <c r="D65">
+        <v>0.01538400814611065</v>
+      </c>
+      <c r="E65">
+        <v>0.005932126471046161</v>
+      </c>
+      <c r="F65">
+        <v>-0.06093598750904179</v>
+      </c>
+      <c r="G65">
+        <v>0.03951794450361439</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.1345620620831586</v>
+        <v>0.1505203189716885</v>
       </c>
       <c r="C66">
-        <v>0.0910263310752599</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>-0.0570588128788506</v>
+      </c>
+      <c r="D66">
+        <v>0.1212034071361598</v>
+      </c>
+      <c r="E66">
+        <v>0.05473068026717926</v>
+      </c>
+      <c r="F66">
+        <v>-0.0415594948330555</v>
+      </c>
+      <c r="G66">
+        <v>-0.01637549590006382</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.06861703661482417</v>
+        <v>0.07321409814965321</v>
       </c>
       <c r="C67">
-        <v>0.02532261861350772</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>-0.008933092319526503</v>
+      </c>
+      <c r="D67">
+        <v>0.02535526912508963</v>
+      </c>
+      <c r="E67">
+        <v>-0.02902921389345841</v>
+      </c>
+      <c r="F67">
+        <v>0.006552104359007029</v>
+      </c>
+      <c r="G67">
+        <v>0.001948442502378378</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.05362517008047052</v>
+        <v>0.06959369366975775</v>
       </c>
       <c r="C68">
-        <v>0.04873499252123924</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>-0.04854970121016848</v>
+      </c>
+      <c r="D68">
+        <v>-0.265427161715265</v>
+      </c>
+      <c r="E68">
+        <v>-0.04773379220133673</v>
+      </c>
+      <c r="F68">
+        <v>-0.01087656382359505</v>
+      </c>
+      <c r="G68">
+        <v>-0.0008710135594930697</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.04755196015505672</v>
+        <v>0.05106615458225886</v>
       </c>
       <c r="C69">
-        <v>0.0282865892969215</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>-0.01333748361162631</v>
+      </c>
+      <c r="D69">
+        <v>0.03586482153620377</v>
+      </c>
+      <c r="E69">
+        <v>-0.01705601625746283</v>
+      </c>
+      <c r="F69">
+        <v>-0.002817891828362752</v>
+      </c>
+      <c r="G69">
+        <v>-0.0101170899079731</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B70">
-        <v>0.003490933487468216</v>
+        <v>0.01083281200905299</v>
       </c>
       <c r="C70">
-        <v>-0.001775482445999593</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>0.0008106070620170426</v>
+      </c>
+      <c r="D70">
+        <v>-0.001826221741256968</v>
+      </c>
+      <c r="E70">
+        <v>0.004761693477671405</v>
+      </c>
+      <c r="F70">
+        <v>0.003319279846175627</v>
+      </c>
+      <c r="G70">
+        <v>0.0004785666146903628</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.05636573155039034</v>
+        <v>0.07332350676889819</v>
       </c>
       <c r="C71">
-        <v>0.04982801388566924</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>-0.04879560240429404</v>
+      </c>
+      <c r="D71">
+        <v>-0.2992811290499331</v>
+      </c>
+      <c r="E71">
+        <v>-0.05063452113770339</v>
+      </c>
+      <c r="F71">
+        <v>-0.03151482555079693</v>
+      </c>
+      <c r="G71">
+        <v>-0.002981577092010388</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.128596467743932</v>
+        <v>0.149778269784681</v>
       </c>
       <c r="C72">
-        <v>0.07819051778879355</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>-0.05233860330827359</v>
+      </c>
+      <c r="D72">
+        <v>0.01407505002515221</v>
+      </c>
+      <c r="E72">
+        <v>0.1085423238968685</v>
+      </c>
+      <c r="F72">
+        <v>0.1470334638902669</v>
+      </c>
+      <c r="G72">
+        <v>0.1166152157207446</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.2421458232766846</v>
+        <v>0.2680785442885439</v>
       </c>
       <c r="C73">
-        <v>0.1426280501646802</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>-0.08917286706496744</v>
+      </c>
+      <c r="D73">
+        <v>0.06293313483660538</v>
+      </c>
+      <c r="E73">
+        <v>0.1845856200826735</v>
+      </c>
+      <c r="F73">
+        <v>-0.08240541270676896</v>
+      </c>
+      <c r="G73">
+        <v>-0.1572217909037633</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.07642631812716698</v>
+        <v>0.08879673165952177</v>
       </c>
       <c r="C74">
-        <v>0.08238816888161672</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>-0.06301517416816299</v>
+      </c>
+      <c r="D74">
+        <v>0.03474789430714804</v>
+      </c>
+      <c r="E74">
+        <v>0.003120196894866457</v>
+      </c>
+      <c r="F74">
+        <v>0.003903650251739935</v>
+      </c>
+      <c r="G74">
+        <v>-0.03642513924976779</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.09520589250297909</v>
+        <v>0.1073685561440139</v>
       </c>
       <c r="C75">
-        <v>0.07327443524081759</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>-0.04505334127478106</v>
+      </c>
+      <c r="D75">
+        <v>0.02072768613447116</v>
+      </c>
+      <c r="E75">
+        <v>-0.008377340560717782</v>
+      </c>
+      <c r="F75">
+        <v>-0.06868363528189288</v>
+      </c>
+      <c r="G75">
+        <v>-0.01534585326604553</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.1178220102333762</v>
+        <v>0.1329410856871406</v>
       </c>
       <c r="C76">
-        <v>0.1004462468334888</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <v>-0.06974352428865434</v>
+      </c>
+      <c r="D76">
+        <v>0.05651968771640452</v>
+      </c>
+      <c r="E76">
+        <v>-0.009311867867749938</v>
+      </c>
+      <c r="F76">
+        <v>-0.07109853631611576</v>
+      </c>
+      <c r="G76">
+        <v>-0.02149789203466571</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.09334438003625374</v>
+        <v>0.1002725872344781</v>
       </c>
       <c r="C77">
-        <v>0.06652467700123524</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>-0.03423466199499466</v>
+      </c>
+      <c r="D77">
+        <v>0.0431249332715278</v>
+      </c>
+      <c r="E77">
+        <v>0.06077438056556021</v>
+      </c>
+      <c r="F77">
+        <v>-0.2961131730787904</v>
+      </c>
+      <c r="G77">
+        <v>0.8880468357397704</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.08310541553726378</v>
+        <v>0.09905998463047536</v>
       </c>
       <c r="C78">
-        <v>0.04712072907011215</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>-0.03157471538694903</v>
+      </c>
+      <c r="D78">
+        <v>0.07555777263643321</v>
+      </c>
+      <c r="E78">
+        <v>-0.0558304183948734</v>
+      </c>
+      <c r="F78">
+        <v>0.01066700435304729</v>
+      </c>
+      <c r="G78">
+        <v>0.02927363728336618</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0.1345340704930133</v>
+        <v>0.1504973211487535</v>
       </c>
       <c r="C79">
-        <v>0.1029968425845859</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>-0.06587945668203572</v>
+      </c>
+      <c r="D79">
+        <v>0.03171593146489721</v>
+      </c>
+      <c r="E79">
+        <v>0.02067811444364091</v>
+      </c>
+      <c r="F79">
+        <v>-0.03934582693658428</v>
+      </c>
+      <c r="G79">
+        <v>-0.02231496118483207</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.04498140943082649</v>
+        <v>0.04030248804985818</v>
       </c>
       <c r="C80">
-        <v>0.01959425365801871</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>-0.006272306514609571</v>
+      </c>
+      <c r="D80">
+        <v>0.02596285405910682</v>
+      </c>
+      <c r="E80">
+        <v>-0.009550251243667382</v>
+      </c>
+      <c r="F80">
+        <v>0.03139782617333649</v>
+      </c>
+      <c r="G80">
+        <v>-0.04606760569843313</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.108186091112889</v>
+        <v>0.1206358913207738</v>
       </c>
       <c r="C81">
-        <v>0.08182913066971739</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>-0.05292789982168414</v>
+      </c>
+      <c r="D81">
+        <v>0.03739220039619789</v>
+      </c>
+      <c r="E81">
+        <v>0.005883197976968058</v>
+      </c>
+      <c r="F81">
+        <v>-0.03844103626219516</v>
+      </c>
+      <c r="G81">
+        <v>-0.0574524538530003</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0.1138801573179481</v>
+        <v>0.1255775536684882</v>
       </c>
       <c r="C82">
-        <v>0.0945116573985382</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>-0.06149241130971843</v>
+      </c>
+      <c r="D82">
+        <v>0.03806629028895307</v>
+      </c>
+      <c r="E82">
+        <v>0.02410814159022907</v>
+      </c>
+      <c r="F82">
+        <v>-0.05591992194912163</v>
+      </c>
+      <c r="G82">
+        <v>-0.06490910180259933</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.0715248038484714</v>
+        <v>0.07009149257136808</v>
       </c>
       <c r="C83">
-        <v>0.0164415443622142</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>0.004713570835521419</v>
+      </c>
+      <c r="D83">
+        <v>0.04320387955252123</v>
+      </c>
+      <c r="E83">
+        <v>-0.01247040018669056</v>
+      </c>
+      <c r="F83">
+        <v>-0.0005925269211920247</v>
+      </c>
+      <c r="G83">
+        <v>-0.05606741158469012</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>0.02408684687064047</v>
+        <v>0.03306962142720623</v>
       </c>
       <c r="C84">
-        <v>0.01941963276218947</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>-0.01910339826163663</v>
+      </c>
+      <c r="D84">
+        <v>0.01422130728571687</v>
+      </c>
+      <c r="E84">
+        <v>-0.008831349255079821</v>
+      </c>
+      <c r="F84">
+        <v>0.03284822752938107</v>
+      </c>
+      <c r="G84">
+        <v>-0.03760652360319745</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.116364806439053</v>
+        <v>0.1181406236403853</v>
       </c>
       <c r="C85">
-        <v>0.08142085312999874</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>-0.04599571346692462</v>
+      </c>
+      <c r="D85">
+        <v>0.03703536445081602</v>
+      </c>
+      <c r="E85">
+        <v>-0.01171911738830042</v>
+      </c>
+      <c r="F85">
+        <v>-0.08399130002303244</v>
+      </c>
+      <c r="G85">
+        <v>-0.009241390779244652</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.04408241869425634</v>
+        <v>0.04685836411725672</v>
       </c>
       <c r="C86">
-        <v>0.02574883104289523</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>-0.01197493120694039</v>
+      </c>
+      <c r="D86">
+        <v>0.01483238954333567</v>
+      </c>
+      <c r="E86">
+        <v>-0.04397266546778269</v>
+      </c>
+      <c r="F86">
+        <v>-0.01415258021045631</v>
+      </c>
+      <c r="G86">
+        <v>0.0006981581978782361</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.1125006942365883</v>
+        <v>0.1184607192538874</v>
       </c>
       <c r="C87">
-        <v>0.08128738188380198</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>-0.04790894646713496</v>
+      </c>
+      <c r="D87">
+        <v>0.07375110832873957</v>
+      </c>
+      <c r="E87">
+        <v>-0.01146507026999621</v>
+      </c>
+      <c r="F87">
+        <v>-0.03156043745951637</v>
+      </c>
+      <c r="G87">
+        <v>0.09969737586477549</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.05305423531767901</v>
+        <v>0.05713111816468073</v>
       </c>
       <c r="C88">
-        <v>0.04306627108049258</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>-0.02654847634417061</v>
+      </c>
+      <c r="D88">
+        <v>0.02656953239824929</v>
+      </c>
+      <c r="E88">
+        <v>-0.02086010052139332</v>
+      </c>
+      <c r="F88">
+        <v>-0.007716254711244339</v>
+      </c>
+      <c r="G88">
+        <v>0.00665624075633509</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.07455013264249209</v>
+        <v>0.1058300015043778</v>
       </c>
       <c r="C89">
-        <v>0.08209717588356361</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>-0.07990633408153833</v>
+      </c>
+      <c r="D89">
+        <v>-0.3263966186122837</v>
+      </c>
+      <c r="E89">
+        <v>-0.09228069051133794</v>
+      </c>
+      <c r="F89">
+        <v>-0.04700347324931195</v>
+      </c>
+      <c r="G89">
+        <v>-0.01216437985507559</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.06952202022997303</v>
+        <v>0.09072219843683169</v>
       </c>
       <c r="C90">
-        <v>0.07332053028733988</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>-0.06929825532270074</v>
+      </c>
+      <c r="D90">
+        <v>-0.3117815345656979</v>
+      </c>
+      <c r="E90">
+        <v>-0.07543532335335323</v>
+      </c>
+      <c r="F90">
+        <v>0.02422334598676546</v>
+      </c>
+      <c r="G90">
+        <v>-0.01639186925970574</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.07932258780560843</v>
+        <v>0.08881208600988288</v>
       </c>
       <c r="C91">
-        <v>0.06508084536574459</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>-0.04297369162962991</v>
+      </c>
+      <c r="D91">
+        <v>0.02894573718391326</v>
+      </c>
+      <c r="E91">
+        <v>-0.00469859175471808</v>
+      </c>
+      <c r="F91">
+        <v>-0.01497096495978617</v>
+      </c>
+      <c r="G91">
+        <v>-0.03479515293465591</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.08257967026944238</v>
+        <v>0.1043020901529311</v>
       </c>
       <c r="C92">
-        <v>0.0650968091956695</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>-0.06237416603385593</v>
+      </c>
+      <c r="D92">
+        <v>-0.3283702074954699</v>
+      </c>
+      <c r="E92">
+        <v>-0.02934279673909437</v>
+      </c>
+      <c r="F92">
+        <v>-0.02650814308737356</v>
+      </c>
+      <c r="G92">
+        <v>0.02080985635735116</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.06140585890721174</v>
+        <v>0.08628331036138231</v>
       </c>
       <c r="C93">
-        <v>0.06889602441467918</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>-0.06805417183006657</v>
+      </c>
+      <c r="D93">
+        <v>-0.2992373520448068</v>
+      </c>
+      <c r="E93">
+        <v>-0.04340947766908934</v>
+      </c>
+      <c r="F93">
+        <v>-0.03371091079756074</v>
+      </c>
+      <c r="G93">
+        <v>0.01348708502182425</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.1252044884154563</v>
+        <v>0.1285106574101679</v>
       </c>
       <c r="C94">
-        <v>0.07965165424070482</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>-0.03963488555151233</v>
+      </c>
+      <c r="D94">
+        <v>0.05817178772510861</v>
+      </c>
+      <c r="E94">
+        <v>0.02689923242442156</v>
+      </c>
+      <c r="F94">
+        <v>-0.05066864202789129</v>
+      </c>
+      <c r="G94">
+        <v>-0.0410026393374278</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.114237192467674</v>
+        <v>0.1197643719819621</v>
       </c>
       <c r="C95">
-        <v>0.05605953810071814</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>-0.02823715737786699</v>
+      </c>
+      <c r="D95">
+        <v>0.05795357033237628</v>
+      </c>
+      <c r="E95">
+        <v>0.0119601427767734</v>
+      </c>
+      <c r="F95">
+        <v>-0.03917193122953905</v>
+      </c>
+      <c r="G95">
+        <v>0.01144994339078068</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1744,43 +2896,91 @@
       <c r="C96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:3">
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B97">
-        <v>0.188405882807624</v>
+        <v>0.2228220604076949</v>
       </c>
       <c r="C97">
-        <v>0.07638100274496493</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>-0.04344930735639385</v>
+      </c>
+      <c r="D97">
+        <v>-0.007281975659528118</v>
+      </c>
+      <c r="E97">
+        <v>0.2318903214042328</v>
+      </c>
+      <c r="F97">
+        <v>0.863305360524158</v>
+      </c>
+      <c r="G97">
+        <v>0.2274240624509365</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.235055647350517</v>
+        <v>0.2574893397706454</v>
       </c>
       <c r="C98">
-        <v>0.1209212159959212</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>-0.0629438105677205</v>
+      </c>
+      <c r="D98">
+        <v>0.03838198910423431</v>
+      </c>
+      <c r="E98">
+        <v>0.1406658650883033</v>
+      </c>
+      <c r="F98">
+        <v>-0.02110611187849314</v>
+      </c>
+      <c r="G98">
+        <v>-0.2332255332725508</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B99">
-        <v>0.5671377929558792</v>
+        <v>0.3762305905879001</v>
       </c>
       <c r="C99">
-        <v>-0.813675688909124</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>0.9159390602723929</v>
+      </c>
+      <c r="D99">
+        <v>-0.07119896155416396</v>
+      </c>
+      <c r="E99">
+        <v>-0.04895351783198227</v>
+      </c>
+      <c r="F99">
+        <v>-0.03588068325522968</v>
+      </c>
+      <c r="G99">
+        <v>-0.002346959763256834</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -1788,21 +2988,45 @@
       <c r="C100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:3">
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.03627102889135887</v>
+        <v>0.04217353572658453</v>
       </c>
       <c r="C101">
-        <v>0.03309025967361607</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>-0.02569631157425828</v>
+      </c>
+      <c r="D101">
+        <v>0.01022139843477367</v>
+      </c>
+      <c r="E101">
+        <v>-0.04076469952427766</v>
+      </c>
+      <c r="F101">
+        <v>-0.006082608572152956</v>
+      </c>
+      <c r="G101">
+        <v>-0.007357952285772081</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -1810,10 +3034,22 @@
       <c r="C102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -1821,15 +3057,39 @@
       <c r="C103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
